--- a/hojanumero5.xlsx
+++ b/hojanumero5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Paniagua\Documents\Tercer Semestre UVG\Estructuras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\GitHub\HDT5-estructuras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF0843-8F71-45B2-824D-98A4E325A015}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42223BE-96C2-407F-B510-84C429CEF54A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="5850" firstSheet="1" activeTab="2" xr2:uid="{E34DA57A-705C-48AF-B6A7-3CDCEE0B1A88}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20496" windowHeight="5856" activeTab="3" xr2:uid="{E34DA57A-705C-48AF-B6A7-3CDCEE0B1A88}"/>
   </bookViews>
   <sheets>
     <sheet name="3 instrucciones" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>NoProcesos</t>
   </si>
@@ -55,6 +54,12 @@
   </si>
   <si>
     <t>intervalo de 10</t>
+  </si>
+  <si>
+    <t>las diferencias son muy pequenias para verse</t>
+  </si>
+  <si>
+    <t>Se recomienda utilizar 2 procesadores con intervalos de 5 ya que se evidencia que fue el tiempo mas rapido de todos los probados, aunque en las tablas no se pueda ap[reciar debido a un error tecnico el cual causo que no se pudieran llenar de manera satisfactoria</t>
   </si>
 </sst>
 </file>
@@ -136,12 +141,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F98287-6AC2-49DD-A773-40078DF000DF}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -486,7 +497,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -515,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>25</v>
       </c>
@@ -524,15 +535,19 @@
       <c r="H4" s="4">
         <v>25</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4">
+        <v>1.4736842000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.51298917604257699</v>
+      </c>
       <c r="M4" s="4">
         <v>25</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>50</v>
       </c>
@@ -541,15 +556,19 @@
       <c r="H5" s="4">
         <v>50</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4">
+        <v>1.4736842000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.51298917604257699</v>
+      </c>
       <c r="M5" s="4">
         <v>50</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -558,15 +577,23 @@
       <c r="H6" s="4">
         <v>100</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4">
+        <v>1.4736842000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.51298917604257699</v>
+      </c>
       <c r="M6" s="4">
         <v>100</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="4">
+        <v>4.2272720000000001</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.2452450960029999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>150</v>
       </c>
@@ -575,15 +602,19 @@
       <c r="H7" s="4">
         <v>150</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4">
+        <v>1.4736842000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.51298917604257699</v>
+      </c>
       <c r="M7" s="4">
         <v>150</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>200</v>
       </c>
@@ -592,13 +623,22 @@
       <c r="H8" s="4">
         <v>200</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4">
+        <v>1.4736842000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.51298917604257699</v>
+      </c>
       <c r="M8" s="4">
         <v>200</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -610,12 +650,12 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -632,7 +672,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -661,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -678,7 +718,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>50</v>
       </c>
@@ -695,7 +735,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100</v>
       </c>
@@ -704,15 +744,23 @@
       <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>5.1515149999999998</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.5139760853229598</v>
+      </c>
       <c r="K5" s="4">
         <v>100</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="4">
+        <v>6.8717940000000004</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3.7918158903471002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>150</v>
       </c>
@@ -729,7 +777,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>200</v>
       </c>
@@ -755,13 +803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6106C222-7128-4399-8BBD-D1D0D6165F1B}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,7 +826,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -807,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>25</v>
       </c>
@@ -828,7 +876,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>50</v>
       </c>
@@ -845,24 +893,36 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4">
+        <v>1.4736842000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.51298917604257699</v>
+      </c>
       <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>1.3684210000000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.597264720370147</v>
+      </c>
       <c r="K5" s="4">
         <v>100</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="4">
+        <v>1.4736842000000001</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.51298917604257699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>150</v>
       </c>
@@ -879,7 +939,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>200</v>
       </c>
@@ -903,14 +963,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF5F1F-8980-408D-8748-B5E4B5C8D69B}">
-  <dimension ref="A1"/>
+  <dimension ref="C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="85.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" s="5" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hojanumero5.xlsx
+++ b/hojanumero5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\GitHub\HDT5-estructuras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42223BE-96C2-407F-B510-84C429CEF54A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165FB41-C022-43EE-8EFC-912FD3E44B63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20496" windowHeight="5856" activeTab="3" xr2:uid="{E34DA57A-705C-48AF-B6A7-3CDCEE0B1A88}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="780" windowWidth="20496" windowHeight="5856" activeTab="2" xr2:uid="{E34DA57A-705C-48AF-B6A7-3CDCEE0B1A88}"/>
   </bookViews>
   <sheets>
     <sheet name="3 instrucciones" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,2823 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 instrucciones'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 instrucciones'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 instrucciones'!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0B2-48C9-B8E5-94467EB8FB6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="490637560"/>
+        <c:axId val="490634936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="490637560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490634936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="490634936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490637560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 instrucciones'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prom tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 instrucciones'!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>4.2272720000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDAE-4E08-8374-2BA42805EF8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 instrucciones'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 instrucciones'!$O$4:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>2.2452450960029999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDAE-4E08-8374-2BA42805EF8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="490637888"/>
+        <c:axId val="490638544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="490637888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490638544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="490638544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490637888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 instrucciones'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prom tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 instrucciones'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4736842000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-822A-49BE-BD6A-06C0756BC1BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 instrucciones'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 instrucciones'!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51298917604257699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-822A-49BE-BD6A-06C0756BC1BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498719128"/>
+        <c:axId val="498716504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498719128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498716504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498716504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498719128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6C6A75-BD17-41A3-B878-7E928A2A6CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D39A8F-7232-4178-BD5A-0666A634E574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD02AF3-8F02-4E06-8E66-EA534FB23C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -470,7 +3287,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I3" sqref="I3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,6 +3459,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -803,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6106C222-7128-4399-8BBD-D1D0D6165F1B}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +3783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF5F1F-8980-408D-8748-B5E4B5C8D69B}">
   <dimension ref="C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
